--- a/data/preCondInput.xlsx
+++ b/data/preCondInput.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{677E6984-B028-43C9-A462-3981BD0E7611}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="PreCon" sheetId="1" r:id="rId1"/>
@@ -29,13 +28,13 @@
     <t>GC</t>
   </si>
   <si>
-    <t>https://stg-pulse.gartner.com/Pulse/S3/login?redirecturl=https%3a%2f%2fstg-pulse.gartner.com%2fPulse%2f</t>
+    <t>http://stg-surveys.cebglobal.com/Pulse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -45,9 +44,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,14 +84,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -120,7 +121,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -179,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,26 +213,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,23 +248,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,7 +423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -493,13 +460,16 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"GC, FF, IE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"20,40,60"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>